--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{5AC6DF79-975A-436A-B293-9127365A3843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B3FC2A13-9924-441D-9F66-1FC525EE8BD9}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{5AC6DF79-975A-436A-B293-9127365A3843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{357D1E32-5827-4E2C-A824-BB7225DA2D84}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="99">
   <si>
     <t>Website</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
-  </si>
-  <si>
     <t>Salutation</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>not used</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>"snapADDY"</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>CRM System: Pipedrive</t>
@@ -254,15 +242,6 @@
   </si>
   <si>
     <t>Geschlecht</t>
-  </si>
-  <si>
-    <t>nicht benötigt</t>
-  </si>
-  <si>
-    <t>muss ausgefüllt sein</t>
-  </si>
-  <si>
-    <t>andere Bemerkungen</t>
   </si>
   <si>
     <t>JobTitle</t>
@@ -389,6 +368,9 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>das ist eine Notiz</t>
   </si>
 </sst>
 </file>
@@ -1714,6 +1696,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1771,19 +1766,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2622,41 +2604,43 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2665,111 +2649,111 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G3" s="59"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="61.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="40"/>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="O4" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="S4" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="111" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="O4" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="S4" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="106"/>
-      <c r="U4" s="107"/>
-      <c r="W4" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="107"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="111"/>
+      <c r="U4" s="112"/>
+      <c r="W4" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="112"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M6" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="72" t="s">
-        <v>26</v>
-      </c>
       <c r="Q6" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="91" t="s">
-        <v>26</v>
-      </c>
       <c r="U6" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="X6" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="X6" s="91" t="s">
-        <v>26</v>
-      </c>
       <c r="Y6" s="92" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="124"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="25"/>
       <c r="E7" s="47"/>
       <c r="G7" s="74"/>
@@ -2789,112 +2773,116 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="94"/>
     </row>
-    <row r="8" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="62" t="s">
-        <v>45</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C8" s="106"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="63"/>
       <c r="G8" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="64"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="77" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="J8" s="65"/>
       <c r="K8" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="64"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>3</v>
+      </c>
       <c r="M8" s="77" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="O8" s="76"/>
       <c r="P8" s="64"/>
       <c r="Q8" s="77"/>
       <c r="S8" s="95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T8" s="64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U8" s="96"/>
       <c r="W8" s="95"/>
       <c r="X8" s="64"/>
       <c r="Y8" s="96"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="126" t="s">
-        <v>45</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="26"/>
       <c r="E9" s="48"/>
       <c r="G9" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M9" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O9" s="78"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="79"/>
       <c r="S9" s="97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U9" s="98"/>
       <c r="W9" s="99"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="98"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="126" t="s">
-        <v>45</v>
-      </c>
+      <c r="C10" s="107"/>
       <c r="D10" s="26"/>
       <c r="E10" s="48"/>
       <c r="G10" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I10" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="M10" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O10" s="78"/>
       <c r="P10" s="5"/>
@@ -2906,30 +2894,32 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="98"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="126" t="s">
-        <v>45</v>
-      </c>
+      <c r="C11" s="107"/>
       <c r="D11" s="26"/>
       <c r="E11" s="48"/>
       <c r="G11" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="I11" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="M11" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O11" s="78"/>
       <c r="P11" s="5"/>
@@ -2941,33 +2931,35 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="98"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="126"/>
+        <v>57</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="26"/>
       <c r="E12" s="48"/>
       <c r="G12" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="I12" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="78"/>
       <c r="L12" s="5"/>
       <c r="M12" s="79"/>
       <c r="O12" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="Q12" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="S12" s="99"/>
       <c r="T12" s="5"/>
@@ -2976,35 +2968,41 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="98"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="22"/>
-      <c r="C13" s="126"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="26"/>
       <c r="E13" s="48"/>
       <c r="G13" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="I13" s="75" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="75" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="79" t="s">
+        <v>33</v>
       </c>
       <c r="O13" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="75" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="79" t="s">
+        <v>33</v>
       </c>
       <c r="S13" s="99"/>
       <c r="T13" s="5"/>
@@ -3013,37 +3011,41 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="98"/>
     </row>
-    <row r="14" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="61"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="62" t="s">
-        <v>45</v>
-      </c>
+      <c r="C14" s="106"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="63"/>
       <c r="G14" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="66"/>
+        <v>69</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>69</v>
+      </c>
       <c r="I14" s="81" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J14" s="65"/>
       <c r="K14" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="66"/>
-      <c r="M14" s="81" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="L14" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="79" t="s">
+        <v>33</v>
       </c>
       <c r="O14" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="81" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="P14" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="79" t="s">
+        <v>33</v>
       </c>
       <c r="S14" s="100"/>
       <c r="T14" s="66"/>
@@ -3052,35 +3054,41 @@
       <c r="X14" s="66"/>
       <c r="Y14" s="101"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B15" s="23"/>
-      <c r="C15" s="126"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="26"/>
       <c r="E15" s="48"/>
       <c r="G15" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="I15" s="83" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="83" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="79" t="s">
+        <v>33</v>
       </c>
       <c r="O15" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="83" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="79" t="s">
+        <v>33</v>
       </c>
       <c r="S15" s="99"/>
       <c r="T15" s="5"/>
@@ -3089,35 +3097,41 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="98"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="126"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="26"/>
       <c r="E16" s="48"/>
       <c r="G16" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I16" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="M16" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O16" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q16" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="S16" s="99"/>
       <c r="T16" s="5"/>
@@ -3126,35 +3140,41 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="98"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="126"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="26"/>
       <c r="E17" s="48"/>
       <c r="G17" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="I17" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="M17" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O17" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="S17" s="99"/>
       <c r="T17" s="5"/>
@@ -3163,35 +3183,41 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="98"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="126"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="26"/>
       <c r="E18" s="48"/>
       <c r="G18" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="I18" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="M18" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O18" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="Q18" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="S18" s="99"/>
       <c r="T18" s="5"/>
@@ -3200,28 +3226,32 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="98"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="126"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="26"/>
       <c r="E19" s="48"/>
       <c r="G19" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="I19" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="M19" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O19" s="78"/>
       <c r="P19" s="5"/>
@@ -3233,37 +3263,41 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="98"/>
     </row>
-    <row r="20" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B20" s="61"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="62" t="s">
-        <v>45</v>
-      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="63"/>
       <c r="G20" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="66"/>
+        <v>73</v>
+      </c>
+      <c r="H20" s="66" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="81" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J20" s="65"/>
       <c r="K20" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="66"/>
-      <c r="M20" s="81" t="s">
-        <v>3</v>
+      <c r="L20" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="79" t="s">
+        <v>33</v>
       </c>
       <c r="O20" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="81" t="s">
-        <v>3</v>
+      <c r="P20" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="79" t="s">
+        <v>33</v>
       </c>
       <c r="S20" s="100"/>
       <c r="T20" s="66"/>
@@ -3272,30 +3306,32 @@
       <c r="X20" s="66"/>
       <c r="Y20" s="101"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="126" t="s">
-        <v>45</v>
-      </c>
+      <c r="C21" s="107"/>
       <c r="D21" s="26"/>
       <c r="E21" s="48"/>
       <c r="G21" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="I21" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="M21" s="79" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="O21" s="78"/>
       <c r="P21" s="5"/>
@@ -3307,20 +3343,22 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="98"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="126"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="26"/>
       <c r="E22" s="48"/>
       <c r="G22" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="I22" s="75" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="74"/>
@@ -3329,9 +3367,11 @@
       <c r="O22" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="75" t="s">
-        <v>3</v>
+      <c r="P22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="79" t="s">
+        <v>33</v>
       </c>
       <c r="S22" s="93"/>
       <c r="T22" s="6"/>
@@ -3340,12 +3380,12 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="94"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="26"/>
       <c r="E23" s="48"/>
       <c r="G23" s="74"/>
@@ -3365,10 +3405,10 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="94"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="27"/>
       <c r="E24" s="49"/>
       <c r="G24" s="84"/>
@@ -3388,7 +3428,7 @@
       <c r="X24" s="103"/>
       <c r="Y24" s="104"/>
     </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="8"/>
       <c r="H25" s="1"/>
       <c r="I25" s="9"/>
@@ -3406,117 +3446,115 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
+      <c r="G26" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="118"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="L26" s="113"/>
-      <c r="M26" s="114"/>
+      <c r="K26" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="118"/>
+      <c r="M26" s="119"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="114"/>
+      <c r="O26" s="117" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="119"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="T26" s="109"/>
-      <c r="U26" s="110"/>
+      <c r="S26" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="T26" s="114"/>
+      <c r="U26" s="115"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="X26" s="109"/>
-      <c r="Y26" s="110"/>
-    </row>
-    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W26" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="115"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G27" s="71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H27" s="72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I27" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="72" t="s">
-        <v>26</v>
-      </c>
       <c r="M27" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="72" t="s">
-        <v>26</v>
-      </c>
       <c r="Q27" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="S27" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="91" t="s">
-        <v>26</v>
-      </c>
       <c r="U27" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="W27" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="X27" s="91" t="s">
-        <v>26</v>
-      </c>
       <c r="Y27" s="92" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="30"/>
       <c r="E28" s="44"/>
       <c r="G28" s="78"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="79" t="s">
-        <v>37</v>
-      </c>
+      <c r="I28" s="79"/>
       <c r="K28" s="78"/>
       <c r="L28" s="5"/>
       <c r="M28" s="79"/>
@@ -3530,21 +3568,19 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="98"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="31"/>
       <c r="E29" s="45"/>
       <c r="G29" s="78"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="79" t="s">
-        <v>35</v>
-      </c>
+      <c r="I29" s="79"/>
       <c r="K29" s="78"/>
       <c r="L29" s="5"/>
       <c r="M29" s="79"/>
@@ -3558,12 +3594,12 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="98"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="31"/>
@@ -3584,12 +3620,12 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="98"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="31"/>
@@ -3610,9 +3646,9 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="98"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="37"/>
@@ -3634,9 +3670,9 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="98"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="37"/>
@@ -3658,9 +3694,9 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="98"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="37"/>
@@ -3682,9 +3718,9 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="98"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="37"/>
@@ -3706,9 +3742,9 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="98"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="37"/>
@@ -3730,9 +3766,9 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="98"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="38"/>
@@ -3754,67 +3790,67 @@
       <c r="X37" s="6"/>
       <c r="Y37" s="94"/>
     </row>
-    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G38" s="71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H38" s="72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I38" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="72" t="s">
-        <v>26</v>
-      </c>
       <c r="M38" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="O38" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="P38" s="88" t="s">
-        <v>26</v>
-      </c>
       <c r="Q38" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="S38" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="T38" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="S38" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="T38" s="91" t="s">
-        <v>26</v>
-      </c>
       <c r="U38" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="W38" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="X38" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="W38" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="X38" s="91" t="s">
-        <v>26</v>
-      </c>
       <c r="Y38" s="92" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="36"/>
@@ -3836,9 +3872,9 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="98"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="37"/>
@@ -3860,9 +3896,9 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="98"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B41" s="31"/>
       <c r="C41" s="37"/>
@@ -3884,9 +3920,9 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="98"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="37"/>
@@ -3908,9 +3944,9 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="98"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="37"/>
@@ -3932,9 +3968,9 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="98"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="37"/>
@@ -3956,9 +3992,9 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="98"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B45" s="31"/>
       <c r="C45" s="37"/>
@@ -3980,9 +4016,9 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="98"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="37"/>
@@ -4004,9 +4040,9 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="98"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B47" s="31"/>
       <c r="C47" s="37"/>
@@ -4028,9 +4064,9 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="98"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B48" s="32"/>
       <c r="C48" s="38"/>
@@ -4052,80 +4088,80 @@
       <c r="X48" s="103"/>
       <c r="Y48" s="104"/>
     </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G50" s="71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H50" s="72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I50" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="L50" s="72" t="s">
-        <v>26</v>
-      </c>
       <c r="M50" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O50" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="P50" s="72" t="s">
-        <v>26</v>
-      </c>
       <c r="Q50" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="S50" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="T50" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="S50" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="T50" s="91" t="s">
-        <v>26</v>
-      </c>
       <c r="U50" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="W50" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="X50" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="W50" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="X50" s="91" t="s">
-        <v>26</v>
-      </c>
       <c r="Y50" s="92" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="115" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="116"/>
-      <c r="D51" s="117"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="122"/>
       <c r="E51" s="41"/>
       <c r="G51" s="78"/>
       <c r="H51" s="5"/>
@@ -4143,15 +4179,15 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="98"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="119"/>
-      <c r="D52" s="120"/>
+        <v>86</v>
+      </c>
+      <c r="B52" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="124"/>
+      <c r="D52" s="125"/>
       <c r="E52" s="42"/>
       <c r="G52" s="78"/>
       <c r="H52" s="5"/>
@@ -4169,15 +4205,15 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="98"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="119"/>
-      <c r="D53" s="120"/>
+        <v>88</v>
+      </c>
+      <c r="B53" s="123" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="124"/>
+      <c r="D53" s="125"/>
       <c r="E53" s="42"/>
       <c r="G53" s="78"/>
       <c r="H53" s="5"/>
@@ -4195,15 +4231,15 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="98"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="119"/>
-      <c r="D54" s="120"/>
+        <v>89</v>
+      </c>
+      <c r="B54" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="124"/>
+      <c r="D54" s="125"/>
       <c r="E54" s="42"/>
       <c r="G54" s="78"/>
       <c r="H54" s="5"/>
@@ -4221,26 +4257,26 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="98"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="119"/>
-      <c r="D55" s="120"/>
+        <v>90</v>
+      </c>
+      <c r="B55" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="124"/>
+      <c r="D55" s="125"/>
       <c r="E55" s="42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G55" s="78" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I55" s="79" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K55" s="78"/>
       <c r="L55" s="5"/>
@@ -4255,7 +4291,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="98"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="B56" s="55"/>
       <c r="C56" s="56"/>
@@ -4277,11 +4313,11 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="98"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="34"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="120"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="125"/>
       <c r="E57" s="42"/>
       <c r="G57" s="78"/>
       <c r="H57" s="5"/>
@@ -4299,11 +4335,11 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="98"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="34"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="120"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="125"/>
       <c r="E58" s="42"/>
       <c r="G58" s="78"/>
       <c r="H58" s="5"/>
@@ -4321,11 +4357,11 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="98"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="34"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="120"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="125"/>
       <c r="E59" s="42"/>
       <c r="G59" s="78"/>
       <c r="H59" s="5"/>
@@ -4343,11 +4379,11 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="98"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="34"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="120"/>
+      <c r="B60" s="123"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="125"/>
       <c r="E60" s="42"/>
       <c r="G60" s="78"/>
       <c r="H60" s="5"/>
@@ -4365,11 +4401,11 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="98"/>
     </row>
-    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="123"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="128"/>
       <c r="E61" s="43"/>
       <c r="G61" s="84"/>
       <c r="H61" s="85"/>
@@ -4387,13 +4423,14 @@
       <c r="X61" s="103"/>
       <c r="Y61" s="104"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eKymE/aMs8Mmyh+CkzjiS2rmnXHpibpv+ka/H+F1rI3EBnIAe93aLzeHR85WRoH9k8ufIOMBehV99zXLYk9Byg==" saltValue="k8wNQVVbl4dM6aJEDGjWNg==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Iwgz6zQJxyC9oilf0d36SJXSfMMBTtDAhwQrYVym2Go0cWE8Kwy4wxsmBIOgE0nhZ1Y9KJZFCzn3x+6O8gKaFw==" saltValue="gftzVWV+qYFr8IGZ4U2KEA==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
   <protectedRanges>
+    <protectedRange sqref="S4:Y61" name="customEntities"/>
+    <protectedRange sqref="A7:Y24" name="Contact Fields"/>
+    <protectedRange sqref="A28:Y37 A39:Y48 A51:X61" name="Questionnaire"/>
     <protectedRange sqref="A1:E1" name="Title"/>
-    <protectedRange sqref="A28:Y37 A39:Y48 A51:X61" name="Questionnaire"/>
-    <protectedRange sqref="A7:Y24" name="Contact Fields"/>
   </protectedRanges>
   <mergeCells count="20">
     <mergeCell ref="B57:D57"/>
@@ -4466,6 +4503,14 @@
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I51:I61 I7:I24 M7:M24 U7:U24 Y7:Y24 I28:I37 M28:M37 Q28:Q37 U28:U37 Y28:Y37 I39:I48 M39:M48 Q39:Q48 U39:U48 Y39:Y48 Y51:Y61 U51:U61 Q51:Q61 M51:M61 Q7:Q24" xr:uid="{9A09BCA2-5538-4ECB-A0D7-71F55941BCFD}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D24 C28:D37 C39:D48" xr:uid="{FD6E7A09-8BCB-43F1-9781-2AD8B25C962F}">
+      <formula1>"x"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4473,21 +4518,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4696,15 +4732,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4721,7 +4758,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4738,4 +4775,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{5AC6DF79-975A-436A-B293-9127365A3843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{357D1E32-5827-4E2C-A824-BB7225DA2D84}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{5AC6DF79-975A-436A-B293-9127365A3843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4B9FC13-9417-4E78-9558-6406B7A1BE23}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="105">
   <si>
     <t>Website</t>
   </si>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>Field Value</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>not used</t>
   </si>
   <si>
     <t>"snapADDY"</t>
@@ -371,6 +365,30 @@
   </si>
   <si>
     <t>das ist eine Notiz</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Nicht benötigt</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1709,6 +1727,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2604,32 +2627,32 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="109" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -2638,9 +2661,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2649,51 +2672,51 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="59"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:25" ht="61.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="39" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E4" s="40"/>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="O4" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="116" t="s">
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="S4" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="116"/>
+      <c r="U4" s="117"/>
+      <c r="W4" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="O4" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="S4" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="111"/>
-      <c r="U4" s="112"/>
-      <c r="W4" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="112"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
         <v>25</v>
       </c>
@@ -2701,7 +2724,7 @@
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="71" t="s">
         <v>21</v>
@@ -2750,7 +2773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="20"/>
       <c r="C7" s="105"/>
@@ -2773,12 +2796,12 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="94"/>
     </row>
-    <row r="8" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="106"/>
       <c r="D8" s="62"/>
@@ -2793,7 +2816,7 @@
         <v>35</v>
       </c>
       <c r="J8" s="65"/>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="110" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="64" t="s">
@@ -2816,9 +2839,9 @@
       <c r="X8" s="64"/>
       <c r="Y8" s="96"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="107"/>
@@ -2834,7 +2857,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="111" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -2857,9 +2880,9 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="98"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="107"/>
@@ -2875,7 +2898,7 @@
         <v>33</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="111" t="s">
         <v>5</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -2894,26 +2917,26 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="98"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="107"/>
       <c r="D11" s="26"/>
       <c r="E11" s="48"/>
       <c r="G11" s="78" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I11" s="79" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="78" t="s">
-        <v>6</v>
+      <c r="K11" s="111" t="s">
+        <v>64</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>6</v>
@@ -2931,29 +2954,29 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="98"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="107"/>
       <c r="D12" s="26"/>
       <c r="E12" s="48"/>
       <c r="G12" s="78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I12" s="79" t="s">
         <v>33</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="78"/>
+      <c r="K12" s="111"/>
       <c r="L12" s="5"/>
       <c r="M12" s="79"/>
       <c r="O12" s="78" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>15</v>
@@ -2968,7 +2991,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="98"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -2977,17 +3000,17 @@
       <c r="D13" s="26"/>
       <c r="E13" s="48"/>
       <c r="G13" s="74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I13" s="75" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="74" t="s">
-        <v>10</v>
+      <c r="K13" s="112" t="s">
+        <v>66</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>10</v>
@@ -2996,7 +3019,7 @@
         <v>33</v>
       </c>
       <c r="O13" s="74" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>16</v>
@@ -3011,7 +3034,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="98"/>
     </row>
-    <row r="14" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>1</v>
       </c>
@@ -3020,17 +3043,17 @@
       <c r="D14" s="62"/>
       <c r="E14" s="63"/>
       <c r="G14" s="80" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="H14" s="66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I14" s="81" t="s">
         <v>33</v>
       </c>
       <c r="J14" s="65"/>
-      <c r="K14" s="80" t="s">
-        <v>11</v>
+      <c r="K14" s="113" t="s">
+        <v>9</v>
       </c>
       <c r="L14" s="66" t="s">
         <v>11</v>
@@ -3039,7 +3062,7 @@
         <v>33</v>
       </c>
       <c r="O14" s="80" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P14" s="66" t="s">
         <v>17</v>
@@ -3054,26 +3077,26 @@
       <c r="X14" s="66"/>
       <c r="Y14" s="101"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="107"/>
       <c r="D15" s="26"/>
       <c r="E15" s="48"/>
       <c r="G15" s="82" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I15" s="83" t="s">
         <v>33</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="82" t="s">
-        <v>12</v>
+      <c r="K15" s="114" t="s">
+        <v>102</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>12</v>
@@ -3082,7 +3105,7 @@
         <v>33</v>
       </c>
       <c r="O15" s="82" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>18</v>
@@ -3097,9 +3120,9 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="98"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="107"/>
@@ -3115,8 +3138,8 @@
         <v>33</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="78" t="s">
-        <v>13</v>
+      <c r="K16" s="111" t="s">
+        <v>8</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>13</v>
@@ -3125,7 +3148,7 @@
         <v>33</v>
       </c>
       <c r="O16" s="78" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>19</v>
@@ -3140,7 +3163,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="98"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -3158,8 +3181,8 @@
         <v>33</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="78" t="s">
-        <v>14</v>
+      <c r="K17" s="111" t="s">
+        <v>2</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>14</v>
@@ -3168,7 +3191,7 @@
         <v>33</v>
       </c>
       <c r="O17" s="78" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>20</v>
@@ -3183,26 +3206,26 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="98"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="107"/>
       <c r="D18" s="26"/>
       <c r="E18" s="48"/>
       <c r="G18" s="78" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I18" s="79" t="s">
         <v>33</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="78" t="s">
-        <v>7</v>
+      <c r="K18" s="111" t="s">
+        <v>97</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>7</v>
@@ -3211,7 +3234,7 @@
         <v>33</v>
       </c>
       <c r="O18" s="78" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="P18" s="5" t="s">
         <v>7</v>
@@ -3226,26 +3249,26 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="98"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="107"/>
       <c r="D19" s="26"/>
       <c r="E19" s="48"/>
       <c r="G19" s="78" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I19" s="79" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="78" t="s">
-        <v>8</v>
+      <c r="K19" s="111" t="s">
+        <v>98</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>8</v>
@@ -3263,26 +3286,26 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="98"/>
     </row>
-    <row r="20" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="61"/>
       <c r="C20" s="106"/>
       <c r="D20" s="62"/>
       <c r="E20" s="63"/>
       <c r="G20" s="80" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H20" s="66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I20" s="81" t="s">
         <v>33</v>
       </c>
       <c r="J20" s="65"/>
-      <c r="K20" s="80" t="s">
-        <v>2</v>
+      <c r="K20" s="113" t="s">
+        <v>99</v>
       </c>
       <c r="L20" s="66" t="s">
         <v>2</v>
@@ -3291,7 +3314,7 @@
         <v>33</v>
       </c>
       <c r="O20" s="80" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="P20" s="66" t="s">
         <v>2</v>
@@ -3306,26 +3329,26 @@
       <c r="X20" s="66"/>
       <c r="Y20" s="101"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="107"/>
       <c r="D21" s="26"/>
       <c r="E21" s="48"/>
       <c r="G21" s="78" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I21" s="79" t="s">
         <v>33</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="78" t="s">
-        <v>9</v>
+      <c r="K21" s="111" t="s">
+        <v>100</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>9</v>
@@ -3343,29 +3366,31 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="98"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="107"/>
       <c r="D22" s="26"/>
       <c r="E22" s="48"/>
       <c r="G22" s="74" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I22" s="75" t="s">
         <v>33</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="74"/>
+      <c r="K22" s="112" t="s">
+        <v>101</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="75"/>
       <c r="O22" s="74" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>0</v>
@@ -3380,9 +3405,9 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="94"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="107"/>
@@ -3405,7 +3430,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="94"/>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="24"/>
       <c r="C24" s="108"/>
@@ -3428,7 +3453,7 @@
       <c r="X24" s="103"/>
       <c r="Y24" s="104"/>
     </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="8"/>
       <c r="H25" s="1"/>
       <c r="I25" s="9"/>
@@ -3446,7 +3471,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52" t="s">
         <v>26</v>
       </c>
@@ -3454,37 +3479,37 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="123"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="123"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="117" t="s">
+      <c r="P26" s="123"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="118"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="117" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="T26" s="114"/>
-      <c r="U26" s="115"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="120"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="X26" s="114"/>
-      <c r="Y26" s="115"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W26" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="120"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
         <v>27</v>
       </c>
@@ -3494,7 +3519,7 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G27" s="71" t="s">
         <v>21</v>
@@ -3542,9 +3567,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>31</v>
@@ -3568,9 +3593,9 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="98"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>32</v>
@@ -3594,9 +3619,9 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="98"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>33</v>
@@ -3620,9 +3645,9 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="98"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>34</v>
@@ -3646,9 +3671,9 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="98"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="37"/>
@@ -3670,9 +3695,9 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="98"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="37"/>
@@ -3694,9 +3719,9 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="98"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="37"/>
@@ -3718,9 +3743,9 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="98"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="37"/>
@@ -3742,9 +3767,9 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="98"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="37"/>
@@ -3766,9 +3791,9 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="98"/>
     </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="38"/>
@@ -3790,7 +3815,7 @@
       <c r="X37" s="6"/>
       <c r="Y37" s="94"/>
     </row>
-    <row r="38" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>28</v>
       </c>
@@ -3800,7 +3825,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G38" s="71" t="s">
         <v>21</v>
@@ -3848,9 +3873,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="36"/>
@@ -3872,9 +3897,9 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="98"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="37"/>
@@ -3896,9 +3921,9 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="98"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" s="31"/>
       <c r="C41" s="37"/>
@@ -3920,9 +3945,9 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="98"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="37"/>
@@ -3944,9 +3969,9 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="98"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="37"/>
@@ -3968,9 +3993,9 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="98"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="37"/>
@@ -3992,9 +4017,9 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="98"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="31"/>
       <c r="C45" s="37"/>
@@ -4016,9 +4041,9 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="98"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="37"/>
@@ -4040,9 +4065,9 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="98"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" s="31"/>
       <c r="C47" s="37"/>
@@ -4064,9 +4089,9 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="98"/>
     </row>
-    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B48" s="32"/>
       <c r="C48" s="38"/>
@@ -4088,14 +4113,14 @@
       <c r="X48" s="103"/>
       <c r="Y48" s="104"/>
     </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>29</v>
       </c>
@@ -4105,7 +4130,7 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G50" s="71" t="s">
         <v>21</v>
@@ -4153,15 +4178,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="122"/>
+        <v>85</v>
+      </c>
+      <c r="B51" s="125" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="126"/>
+      <c r="D51" s="127"/>
       <c r="E51" s="41"/>
       <c r="G51" s="78"/>
       <c r="H51" s="5"/>
@@ -4179,15 +4204,15 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="98"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="123" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="124"/>
-      <c r="D52" s="125"/>
+        <v>84</v>
+      </c>
+      <c r="B52" s="128" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="129"/>
+      <c r="D52" s="130"/>
       <c r="E52" s="42"/>
       <c r="G52" s="78"/>
       <c r="H52" s="5"/>
@@ -4205,15 +4230,15 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="98"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="124"/>
-      <c r="D53" s="125"/>
+        <v>86</v>
+      </c>
+      <c r="B53" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="129"/>
+      <c r="D53" s="130"/>
       <c r="E53" s="42"/>
       <c r="G53" s="78"/>
       <c r="H53" s="5"/>
@@ -4231,15 +4256,15 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="98"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="123" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="124"/>
-      <c r="D54" s="125"/>
+        <v>87</v>
+      </c>
+      <c r="B54" s="128" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="129"/>
+      <c r="D54" s="130"/>
       <c r="E54" s="42"/>
       <c r="G54" s="78"/>
       <c r="H54" s="5"/>
@@ -4257,23 +4282,23 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="98"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="123" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="129"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C55" s="124"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G55" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="I55" s="79" t="s">
         <v>33</v>
@@ -4291,7 +4316,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="98"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
       <c r="B56" s="55"/>
       <c r="C56" s="56"/>
@@ -4313,11 +4338,11 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="98"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
-      <c r="B57" s="123"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="125"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="130"/>
       <c r="E57" s="42"/>
       <c r="G57" s="78"/>
       <c r="H57" s="5"/>
@@ -4335,11 +4360,11 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="98"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
-      <c r="B58" s="123"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="125"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="130"/>
       <c r="E58" s="42"/>
       <c r="G58" s="78"/>
       <c r="H58" s="5"/>
@@ -4357,11 +4382,11 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="98"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
-      <c r="B59" s="123"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="125"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="130"/>
       <c r="E59" s="42"/>
       <c r="G59" s="78"/>
       <c r="H59" s="5"/>
@@ -4379,11 +4404,11 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="98"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
-      <c r="B60" s="123"/>
-      <c r="C60" s="124"/>
-      <c r="D60" s="125"/>
+      <c r="B60" s="128"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="130"/>
       <c r="E60" s="42"/>
       <c r="G60" s="78"/>
       <c r="H60" s="5"/>
@@ -4401,11 +4426,11 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="98"/>
     </row>
-    <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
-      <c r="B61" s="126"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="128"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="133"/>
       <c r="E61" s="43"/>
       <c r="G61" s="84"/>
       <c r="H61" s="85"/>
@@ -4423,9 +4448,9 @@
       <c r="X61" s="103"/>
       <c r="Y61" s="104"/>
     </row>
-    <row r="62" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Iwgz6zQJxyC9oilf0d36SJXSfMMBTtDAhwQrYVym2Go0cWE8Kwy4wxsmBIOgE0nhZ1Y9KJZFCzn3x+6O8gKaFw==" saltValue="gftzVWV+qYFr8IGZ4U2KEA==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="S4:Y61" name="customEntities"/>
     <protectedRange sqref="A7:Y24" name="Contact Fields"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Pipedrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99D3067-E0F2-4B8D-8BC9-F649749C589D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC566D-F3F8-443B-A991-561DA593D9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{91258B22-0CC7-4574-A7B2-68EA9FA5CFC5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{9CCAD3DE-C006-4252-91A6-22E3AC216368}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
   <si>
@@ -104,25 +142,6 @@
   </si>
   <si>
     <t>Pipedrive: Geschäft</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pipedrive: Custom Entity </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(optional)</t>
-    </r>
-  </si>
-  <si>
-    <t>Pipedrive: Custom Entity</t>
   </si>
   <si>
     <t>CRM System: Pipedrive</t>
@@ -161,9 +180,6 @@
     </r>
   </si>
   <si>
-    <t>Pflichtfel</t>
-  </si>
-  <si>
     <t>nicht benötigt</t>
   </si>
   <si>
@@ -291,13 +307,35 @@
   </si>
   <si>
     <t>Frage 10:</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pipedrive: Additional Entity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pipedrive: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +424,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1740,7 +1785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1814,9 +1859,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1961,36 +2003,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2016,6 +2028,36 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3358,12 +3400,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,7 +3429,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3398,7 +3440,7 @@
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3408,9 +3450,9 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="G3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="4" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -3418,464 +3460,464 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="31" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="145" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
+      <c r="G4" s="159" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="145" t="s">
+      <c r="K4" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="O4" s="145" t="s">
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="O4" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="S4" s="142" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="143"/>
-      <c r="U4" s="144"/>
-      <c r="W4" s="142" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="144"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="S4" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="157"/>
+      <c r="U4" s="158"/>
+      <c r="W4" s="156" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="158"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="58" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="O6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="58" t="s">
+      <c r="P6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="59" t="s">
+      <c r="Q6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="71" t="s">
+      <c r="S6" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="72" t="s">
+      <c r="T6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="71" t="s">
+      <c r="W6" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="72" t="s">
+      <c r="X6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="Y6" s="73" t="s">
+      <c r="Y6" s="72" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="17"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
       <c r="E7" s="36"/>
-      <c r="G7" s="60"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="61"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="60"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="61"/>
-      <c r="O7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="O7" s="59"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="61"/>
-      <c r="S7" s="74"/>
+      <c r="Q7" s="60"/>
+      <c r="S7" s="73"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="75"/>
-      <c r="W7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="W7" s="73"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="75"/>
-    </row>
-    <row r="8" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="74"/>
+    </row>
+    <row r="8" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="37"/>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="61" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="63"/>
-      <c r="O8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="O8" s="61"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="63"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="85"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="85"/>
+      <c r="Q8" s="62"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="84"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="84"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="37"/>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="61" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="62" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="62"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="63"/>
-      <c r="O9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="O9" s="61"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="63"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="85"/>
-      <c r="W9" s="77"/>
+      <c r="Q9" s="62"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="84"/>
+      <c r="W9" s="76"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="76"/>
+      <c r="Y9" s="75"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="37"/>
-      <c r="G10" s="62"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="63"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="61" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="M10" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="62"/>
+      <c r="O10" s="61"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="63"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="85"/>
-      <c r="W10" s="77"/>
+      <c r="Q10" s="62"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="84"/>
+      <c r="W10" s="76"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="76"/>
+      <c r="Y10" s="75"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="37"/>
-      <c r="G11" s="62"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="63"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="62" t="s">
-        <v>49</v>
+      <c r="K11" s="61" t="s">
+        <v>46</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="M11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="62"/>
+      <c r="O11" s="61"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="63"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="85"/>
-      <c r="W11" s="77"/>
+      <c r="Q11" s="62"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84"/>
+      <c r="W11" s="76"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="76"/>
+      <c r="Y11" s="75"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="G12" s="60"/>
+      <c r="A12" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="61"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="62" t="s">
-        <v>49</v>
+      <c r="K12" s="61" t="s">
+        <v>46</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="61" t="s">
+      <c r="M12" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="60"/>
+      <c r="O12" s="59"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="61"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="85"/>
-      <c r="W12" s="77"/>
+      <c r="Q12" s="60"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="84"/>
+      <c r="W12" s="76"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="76"/>
-    </row>
-    <row r="13" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y12" s="75"/>
+    </row>
+    <row r="13" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="37"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="52" t="s">
+      <c r="G13" s="63"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="64"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="65"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="88"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="79"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="64"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="87"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="78"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="37"/>
-      <c r="G14" s="66"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="67"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="62" t="s">
-        <v>49</v>
+      <c r="K14" s="61" t="s">
+        <v>46</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="67" t="s">
+      <c r="M14" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="66"/>
+      <c r="O14" s="65"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="67"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="85"/>
-      <c r="W14" s="77"/>
+      <c r="Q14" s="66"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="84"/>
+      <c r="W14" s="76"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="76"/>
+      <c r="Y14" s="75"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="37"/>
-      <c r="G15" s="62"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="63"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="62" t="s">
-        <v>49</v>
+      <c r="K15" s="61" t="s">
+        <v>46</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="63" t="s">
+      <c r="M15" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="62"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="63"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="85"/>
-      <c r="W15" s="77"/>
+      <c r="Q15" s="62"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="84"/>
+      <c r="W15" s="76"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="76"/>
+      <c r="Y15" s="75"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="37"/>
-      <c r="G16" s="62" t="s">
-        <v>37</v>
+      <c r="G16" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="62" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="62"/>
+      <c r="K16" s="61"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="63"/>
-      <c r="O16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="63"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="85"/>
-      <c r="W16" s="77"/>
+      <c r="Q16" s="62"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="84"/>
+      <c r="W16" s="76"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="76"/>
+      <c r="Y16" s="75"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="37"/>
-      <c r="G17" s="62" t="s">
-        <v>37</v>
+      <c r="G17" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="62" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="61"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="63"/>
-      <c r="O17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="O17" s="61"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="63"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="85"/>
-      <c r="W17" s="77"/>
+      <c r="Q17" s="62"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="84"/>
+      <c r="W17" s="76"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="76"/>
+      <c r="Y17" s="75"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="G18" s="62" t="s">
-        <v>37</v>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="G18" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="63" t="s">
+      <c r="I18" s="62" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="62"/>
+      <c r="K18" s="61"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="63"/>
-      <c r="O18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="O18" s="61"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="63"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="85"/>
-      <c r="W18" s="77"/>
+      <c r="Q18" s="62"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="84"/>
+      <c r="W18" s="76"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="76"/>
-    </row>
-    <row r="19" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="75"/>
+    </row>
+    <row r="19" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -3883,28 +3925,28 @@
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="37"/>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="I19" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="65"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="65"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="88"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="79"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="64"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="64"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="87"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="78"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -3914,90 +3956,90 @@
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
       <c r="E20" s="37"/>
-      <c r="G20" s="62"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="63"/>
+      <c r="I20" s="62"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="62"/>
+      <c r="K20" s="61"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="63"/>
-      <c r="O20" s="62" t="s">
-        <v>50</v>
+      <c r="M20" s="62"/>
+      <c r="O20" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q20" s="63" t="s">
+      <c r="Q20" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="S20" s="83"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="85"/>
-      <c r="W20" s="77"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="84"/>
+      <c r="W20" s="76"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="76"/>
+      <c r="Y20" s="75"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="37"/>
-      <c r="G21" s="60"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="61"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="60"/>
+      <c r="K21" s="59"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="61"/>
-      <c r="O21" s="60" t="s">
-        <v>39</v>
+      <c r="M21" s="60"/>
+      <c r="O21" s="59" t="s">
+        <v>36</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="61" t="s">
+      <c r="Q21" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="S21" s="89"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="91"/>
-      <c r="W21" s="74"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="90"/>
+      <c r="W21" s="73"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="75"/>
+      <c r="Y21" s="74"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
       <c r="E22" s="37"/>
-      <c r="G22" s="60"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="61"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="60"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="61"/>
-      <c r="O22" s="60" t="s">
-        <v>40</v>
+      <c r="M22" s="60"/>
+      <c r="O22" s="59" t="s">
+        <v>37</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q22" s="61" t="s">
+      <c r="Q22" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="S22" s="89"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="91"/>
-      <c r="W22" s="74"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="90"/>
+      <c r="W22" s="73"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="75"/>
+      <c r="Y22" s="74"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4007,51 +4049,51 @@
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="37"/>
-      <c r="G23" s="60"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="61"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="60"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="61"/>
-      <c r="O23" s="60" t="s">
-        <v>51</v>
+      <c r="M23" s="60"/>
+      <c r="O23" s="59" t="s">
+        <v>48</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="61" t="s">
+      <c r="Q23" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="S23" s="74"/>
+      <c r="S23" s="73"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="75"/>
-      <c r="W23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="W23" s="73"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="75"/>
+      <c r="Y23" s="74"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
-      <c r="G24" s="60"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="61"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="60"/>
+      <c r="K24" s="59"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="61"/>
-      <c r="O24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="O24" s="59"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="61"/>
-      <c r="S24" s="74"/>
+      <c r="Q24" s="60"/>
+      <c r="S24" s="73"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="75"/>
-      <c r="W24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="W24" s="73"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="75"/>
+      <c r="Y24" s="74"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
@@ -4059,22 +4101,22 @@
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="38"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="70"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="82"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="82"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="69"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="69"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="81"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="81"/>
     </row>
     <row r="26" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G26" s="8"/>
@@ -4087,725 +4129,725 @@
       <c r="O26" s="8"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="9"/>
-      <c r="S26" s="55"/>
+      <c r="S26" s="54"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="56"/>
+      <c r="U26" s="55"/>
       <c r="W26" s="8"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="137"/>
-      <c r="G27" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="153"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="152" t="s">
+      <c r="A27" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="136"/>
+      <c r="G27" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="153"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="155" t="s">
+      <c r="L27" s="142"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="156"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="158" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="159"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="158" t="s">
-        <v>24</v>
-      </c>
-      <c r="X27" s="159"/>
-      <c r="Y27" s="160"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="147" t="s">
+        <v>70</v>
+      </c>
+      <c r="T27" s="148"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="147" t="s">
+        <v>70</v>
+      </c>
+      <c r="X27" s="148"/>
+      <c r="Y27" s="149"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="138" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="141" t="s">
+      <c r="A28" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="138" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="125" t="s">
+      <c r="G28" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="120" t="s">
+      <c r="H28" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="126" t="s">
+      <c r="I28" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="125" t="s">
+      <c r="K28" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="120" t="s">
+      <c r="L28" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="126" t="s">
+      <c r="M28" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="O28" s="57" t="s">
+      <c r="O28" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="P28" s="58" t="s">
+      <c r="P28" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="Q28" s="59" t="s">
+      <c r="Q28" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="S28" s="71" t="s">
+      <c r="S28" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="T28" s="72" t="s">
+      <c r="T28" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="U28" s="73" t="s">
+      <c r="U28" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="W28" s="71" t="s">
+      <c r="W28" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="X28" s="72" t="s">
+      <c r="X28" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="Y28" s="73" t="s">
+      <c r="Y28" s="72" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="60"/>
+        <v>57</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="107"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="59"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="63"/>
-      <c r="K29" s="60"/>
+      <c r="I29" s="62"/>
+      <c r="K29" s="59"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="63"/>
-      <c r="O29" s="60"/>
+      <c r="M29" s="62"/>
+      <c r="O29" s="59"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="63"/>
-      <c r="S29" s="77"/>
+      <c r="Q29" s="62"/>
+      <c r="S29" s="76"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="76"/>
-      <c r="W29" s="77"/>
+      <c r="U29" s="75"/>
+      <c r="W29" s="76"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="76"/>
+      <c r="Y29" s="75"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="106"/>
-      <c r="G30" s="60"/>
+        <v>58</v>
+      </c>
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="105"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="63"/>
-      <c r="K30" s="60"/>
+      <c r="I30" s="62"/>
+      <c r="K30" s="59"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="63"/>
-      <c r="O30" s="60"/>
+      <c r="M30" s="62"/>
+      <c r="O30" s="59"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="63"/>
-      <c r="S30" s="77"/>
+      <c r="Q30" s="62"/>
+      <c r="S30" s="76"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="76"/>
-      <c r="W30" s="77"/>
+      <c r="U30" s="75"/>
+      <c r="W30" s="76"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="76"/>
+      <c r="Y30" s="75"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="111"/>
-      <c r="G31" s="60"/>
+        <v>59</v>
+      </c>
+      <c r="B31" s="108"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="110"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="63"/>
-      <c r="K31" s="60"/>
+      <c r="I31" s="62"/>
+      <c r="K31" s="59"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="63"/>
-      <c r="O31" s="60"/>
+      <c r="M31" s="62"/>
+      <c r="O31" s="59"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="63"/>
-      <c r="S31" s="77"/>
+      <c r="Q31" s="62"/>
+      <c r="S31" s="76"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="76"/>
-      <c r="W31" s="77"/>
+      <c r="U31" s="75"/>
+      <c r="W31" s="76"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="76"/>
+      <c r="Y31" s="75"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="111"/>
-      <c r="G32" s="60"/>
+        <v>60</v>
+      </c>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="110"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="63"/>
-      <c r="K32" s="60"/>
+      <c r="I32" s="62"/>
+      <c r="K32" s="59"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="63"/>
-      <c r="O32" s="60"/>
+      <c r="M32" s="62"/>
+      <c r="O32" s="59"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="63"/>
-      <c r="S32" s="77"/>
+      <c r="Q32" s="62"/>
+      <c r="S32" s="76"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="76"/>
-      <c r="W32" s="77"/>
+      <c r="U32" s="75"/>
+      <c r="W32" s="76"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="76"/>
+      <c r="Y32" s="75"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="111"/>
-      <c r="G33" s="60"/>
+        <v>61</v>
+      </c>
+      <c r="B33" s="108"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="110"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="63"/>
-      <c r="K33" s="60"/>
+      <c r="I33" s="62"/>
+      <c r="K33" s="59"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="63"/>
-      <c r="O33" s="60"/>
+      <c r="M33" s="62"/>
+      <c r="O33" s="59"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="63"/>
-      <c r="S33" s="77"/>
+      <c r="Q33" s="62"/>
+      <c r="S33" s="76"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="76"/>
-      <c r="W33" s="77"/>
+      <c r="U33" s="75"/>
+      <c r="W33" s="76"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="76"/>
+      <c r="Y33" s="75"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="111"/>
-      <c r="G34" s="60"/>
+        <v>62</v>
+      </c>
+      <c r="B34" s="108"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="110"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="63"/>
-      <c r="K34" s="60"/>
+      <c r="I34" s="62"/>
+      <c r="K34" s="59"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="63"/>
-      <c r="O34" s="60"/>
+      <c r="M34" s="62"/>
+      <c r="O34" s="59"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="63"/>
-      <c r="S34" s="77"/>
+      <c r="Q34" s="62"/>
+      <c r="S34" s="76"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="76"/>
-      <c r="W34" s="77"/>
+      <c r="U34" s="75"/>
+      <c r="W34" s="76"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="76"/>
+      <c r="Y34" s="75"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="111"/>
-      <c r="G35" s="60"/>
+        <v>63</v>
+      </c>
+      <c r="B35" s="108"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="110"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="63"/>
-      <c r="K35" s="60"/>
+      <c r="I35" s="62"/>
+      <c r="K35" s="59"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="63"/>
-      <c r="O35" s="60"/>
+      <c r="M35" s="62"/>
+      <c r="O35" s="59"/>
       <c r="P35" s="6"/>
-      <c r="Q35" s="63"/>
-      <c r="S35" s="77"/>
+      <c r="Q35" s="62"/>
+      <c r="S35" s="76"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="76"/>
-      <c r="W35" s="77"/>
+      <c r="U35" s="75"/>
+      <c r="W35" s="76"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="76"/>
+      <c r="Y35" s="75"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="111"/>
-      <c r="G36" s="60"/>
+        <v>64</v>
+      </c>
+      <c r="B36" s="108"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="110"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="63"/>
-      <c r="K36" s="60"/>
+      <c r="I36" s="62"/>
+      <c r="K36" s="59"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="63"/>
-      <c r="O36" s="60"/>
+      <c r="M36" s="62"/>
+      <c r="O36" s="59"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="63"/>
-      <c r="S36" s="77"/>
+      <c r="Q36" s="62"/>
+      <c r="S36" s="76"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="76"/>
-      <c r="W36" s="77"/>
+      <c r="U36" s="75"/>
+      <c r="W36" s="76"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="76"/>
+      <c r="Y36" s="75"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="111"/>
-      <c r="G37" s="60"/>
+        <v>65</v>
+      </c>
+      <c r="B37" s="108"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="110"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="63"/>
-      <c r="K37" s="60"/>
+      <c r="I37" s="62"/>
+      <c r="K37" s="59"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="63"/>
-      <c r="O37" s="60"/>
+      <c r="M37" s="62"/>
+      <c r="O37" s="59"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="63"/>
-      <c r="S37" s="77"/>
+      <c r="Q37" s="62"/>
+      <c r="S37" s="76"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="76"/>
-      <c r="W37" s="77"/>
+      <c r="U37" s="75"/>
+      <c r="W37" s="76"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="76"/>
+      <c r="Y37" s="75"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="111"/>
-      <c r="G38" s="60"/>
+        <v>66</v>
+      </c>
+      <c r="B38" s="108"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="110"/>
+      <c r="G38" s="59"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="63"/>
-      <c r="K38" s="60"/>
+      <c r="I38" s="62"/>
+      <c r="K38" s="59"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="63"/>
-      <c r="O38" s="60"/>
+      <c r="M38" s="62"/>
+      <c r="O38" s="59"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="63"/>
-      <c r="S38" s="77"/>
+      <c r="Q38" s="62"/>
+      <c r="S38" s="76"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="76"/>
-      <c r="W38" s="77"/>
+      <c r="U38" s="75"/>
+      <c r="W38" s="76"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="76"/>
+      <c r="Y38" s="75"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="114"/>
-      <c r="G39" s="60"/>
+        <v>67</v>
+      </c>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="113"/>
+      <c r="G39" s="59"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="61"/>
-      <c r="K39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="K39" s="59"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="61"/>
-      <c r="O39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="O39" s="59"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="61"/>
-      <c r="S39" s="74"/>
+      <c r="Q39" s="60"/>
+      <c r="S39" s="73"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="75"/>
-      <c r="W39" s="74"/>
+      <c r="U39" s="74"/>
+      <c r="W39" s="73"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="75"/>
+      <c r="Y39" s="74"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="114"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="70"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="70"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="70"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="82"/>
-      <c r="W40" s="80"/>
-      <c r="X40" s="81"/>
-      <c r="Y40" s="82"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="113"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="69"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="69"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="69"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="81"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="80"/>
+      <c r="Y40" s="81"/>
     </row>
     <row r="41" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="133" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133" t="s">
+      <c r="A41" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="G41" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="H41" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="59" t="s">
+      <c r="I41" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K41" s="57" t="s">
+      <c r="K41" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L41" s="58" t="s">
+      <c r="L41" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="59" t="s">
+      <c r="M41" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O41" s="122" t="s">
+      <c r="O41" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="P41" s="123" t="s">
+      <c r="P41" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="124" t="s">
+      <c r="Q41" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="S41" s="130" t="s">
+      <c r="S41" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="T41" s="131" t="s">
+      <c r="T41" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="132" t="s">
+      <c r="U41" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="W41" s="130" t="s">
+      <c r="W41" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="X41" s="131" t="s">
+      <c r="X41" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="Y41" s="132" t="s">
+      <c r="Y41" s="131" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="106"/>
-      <c r="G42" s="62"/>
+      <c r="A42" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="105"/>
+      <c r="G42" s="61"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="63"/>
-      <c r="K42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="K42" s="61"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="63"/>
-      <c r="O42" s="66"/>
+      <c r="M42" s="62"/>
+      <c r="O42" s="65"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="67"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="128"/>
-      <c r="U42" s="129"/>
-      <c r="W42" s="127"/>
-      <c r="X42" s="128"/>
-      <c r="Y42" s="129"/>
+      <c r="Q42" s="66"/>
+      <c r="S42" s="126"/>
+      <c r="T42" s="127"/>
+      <c r="U42" s="128"/>
+      <c r="W42" s="126"/>
+      <c r="X42" s="127"/>
+      <c r="Y42" s="128"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="111"/>
-      <c r="G43" s="62"/>
+        <v>59</v>
+      </c>
+      <c r="B43" s="108"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="110"/>
+      <c r="G43" s="61"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="63"/>
-      <c r="K43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="K43" s="61"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="63"/>
-      <c r="O43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="O43" s="61"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="63"/>
-      <c r="S43" s="77"/>
+      <c r="Q43" s="62"/>
+      <c r="S43" s="76"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="76"/>
-      <c r="W43" s="77"/>
+      <c r="U43" s="75"/>
+      <c r="W43" s="76"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="76"/>
+      <c r="Y43" s="75"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="111"/>
-      <c r="G44" s="62"/>
+        <v>60</v>
+      </c>
+      <c r="B44" s="108"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="110"/>
+      <c r="G44" s="61"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="63"/>
-      <c r="K44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="K44" s="61"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="63"/>
-      <c r="O44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="O44" s="61"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="63"/>
-      <c r="S44" s="77"/>
+      <c r="Q44" s="62"/>
+      <c r="S44" s="76"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="76"/>
-      <c r="W44" s="77"/>
+      <c r="U44" s="75"/>
+      <c r="W44" s="76"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="76"/>
+      <c r="Y44" s="75"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="111"/>
-      <c r="G45" s="62"/>
+        <v>61</v>
+      </c>
+      <c r="B45" s="108"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="110"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="63"/>
-      <c r="K45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="K45" s="61"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="63"/>
-      <c r="O45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="O45" s="61"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="63"/>
-      <c r="S45" s="77"/>
+      <c r="Q45" s="62"/>
+      <c r="S45" s="76"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="76"/>
-      <c r="W45" s="77"/>
+      <c r="U45" s="75"/>
+      <c r="W45" s="76"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="76"/>
+      <c r="Y45" s="75"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="111"/>
-      <c r="G46" s="62"/>
+        <v>62</v>
+      </c>
+      <c r="B46" s="108"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="110"/>
+      <c r="G46" s="61"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="63"/>
-      <c r="K46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="K46" s="61"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="63"/>
-      <c r="O46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="O46" s="61"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="63"/>
-      <c r="S46" s="77"/>
+      <c r="Q46" s="62"/>
+      <c r="S46" s="76"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="76"/>
-      <c r="W46" s="77"/>
+      <c r="U46" s="75"/>
+      <c r="W46" s="76"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="76"/>
+      <c r="Y46" s="75"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="111"/>
-      <c r="G47" s="62"/>
+        <v>63</v>
+      </c>
+      <c r="B47" s="108"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="110"/>
+      <c r="G47" s="61"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="63"/>
-      <c r="K47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="K47" s="61"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="63"/>
-      <c r="O47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="63"/>
-      <c r="S47" s="77"/>
+      <c r="Q47" s="62"/>
+      <c r="S47" s="76"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="76"/>
-      <c r="W47" s="77"/>
+      <c r="U47" s="75"/>
+      <c r="W47" s="76"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="76"/>
+      <c r="Y47" s="75"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="109"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="111"/>
-      <c r="G48" s="62"/>
+        <v>64</v>
+      </c>
+      <c r="B48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="110"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="63"/>
-      <c r="K48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="K48" s="61"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="63"/>
-      <c r="O48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="O48" s="61"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="63"/>
-      <c r="S48" s="77"/>
+      <c r="Q48" s="62"/>
+      <c r="S48" s="76"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="76"/>
-      <c r="W48" s="77"/>
+      <c r="U48" s="75"/>
+      <c r="W48" s="76"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="76"/>
+      <c r="Y48" s="75"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="109"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="111"/>
-      <c r="G49" s="62"/>
+        <v>65</v>
+      </c>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="110"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="63"/>
-      <c r="K49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="K49" s="61"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="63"/>
-      <c r="O49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="O49" s="61"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="63"/>
-      <c r="S49" s="77"/>
+      <c r="Q49" s="62"/>
+      <c r="S49" s="76"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="76"/>
-      <c r="W49" s="77"/>
+      <c r="U49" s="75"/>
+      <c r="W49" s="76"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="76"/>
+      <c r="Y49" s="75"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="109"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="111"/>
-      <c r="G50" s="62"/>
+        <v>66</v>
+      </c>
+      <c r="B50" s="108"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="110"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="63"/>
-      <c r="K50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="K50" s="61"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="63"/>
-      <c r="O50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="O50" s="61"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="63"/>
-      <c r="S50" s="77"/>
+      <c r="Q50" s="62"/>
+      <c r="S50" s="76"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="76"/>
-      <c r="W50" s="77"/>
+      <c r="U50" s="75"/>
+      <c r="W50" s="76"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="76"/>
+      <c r="Y50" s="75"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="112"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="114"/>
-      <c r="G51" s="60"/>
+        <v>67</v>
+      </c>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="113"/>
+      <c r="G51" s="59"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="61"/>
-      <c r="K51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="K51" s="59"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="61"/>
-      <c r="O51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="O51" s="59"/>
       <c r="P51" s="6"/>
-      <c r="Q51" s="61"/>
-      <c r="S51" s="74"/>
+      <c r="Q51" s="60"/>
+      <c r="S51" s="73"/>
       <c r="T51" s="6"/>
-      <c r="U51" s="75"/>
-      <c r="W51" s="74"/>
+      <c r="U51" s="74"/>
+      <c r="W51" s="73"/>
       <c r="X51" s="6"/>
-      <c r="Y51" s="75"/>
+      <c r="Y51" s="74"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="119"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="117"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="70"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="70"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="70"/>
-      <c r="S52" s="80"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="82"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="81"/>
-      <c r="Y52" s="82"/>
+      <c r="A52" s="118"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="116"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="69"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="69"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="69"/>
+      <c r="S52" s="79"/>
+      <c r="T52" s="80"/>
+      <c r="U52" s="81"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="80"/>
+      <c r="Y52" s="81"/>
     </row>
     <row r="53" spans="1:25" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4823,7 +4865,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="134" t="s">
+      <c r="A54" s="133" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -4834,309 +4876,309 @@
       <c r="E54" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="57" t="s">
+      <c r="G54" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="H54" s="58" t="s">
+      <c r="H54" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="59" t="s">
+      <c r="I54" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K54" s="57" t="s">
+      <c r="K54" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="L54" s="58" t="s">
+      <c r="L54" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="59" t="s">
+      <c r="M54" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O54" s="57" t="s">
+      <c r="O54" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="P54" s="58" t="s">
+      <c r="P54" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="Q54" s="59" t="s">
+      <c r="Q54" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="S54" s="71" t="s">
+      <c r="S54" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="T54" s="72" t="s">
+      <c r="T54" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="U54" s="73" t="s">
+      <c r="U54" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="W54" s="71" t="s">
+      <c r="W54" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="X54" s="72" t="s">
+      <c r="X54" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="Y54" s="73" t="s">
+      <c r="Y54" s="72" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="97"/>
+        <v>38</v>
+      </c>
+      <c r="B55" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="95"/>
+      <c r="D55" s="96"/>
       <c r="E55" s="33"/>
-      <c r="G55" s="62"/>
+      <c r="G55" s="61"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="63"/>
-      <c r="K55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="K55" s="61"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="63"/>
-      <c r="O55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="O55" s="61"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="63"/>
-      <c r="S55" s="77"/>
+      <c r="Q55" s="62"/>
+      <c r="S55" s="76"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="76"/>
-      <c r="W55" s="77"/>
+      <c r="U55" s="75"/>
+      <c r="W55" s="76"/>
       <c r="X55" s="5"/>
-      <c r="Y55" s="76"/>
+      <c r="Y55" s="75"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="93"/>
-      <c r="D56" s="94"/>
+        <v>40</v>
+      </c>
+      <c r="B56" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="92"/>
+      <c r="D56" s="93"/>
       <c r="E56" s="34"/>
-      <c r="G56" s="62"/>
+      <c r="G56" s="61"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="63"/>
-      <c r="K56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="K56" s="61"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="63"/>
-      <c r="O56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="O56" s="61"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="63"/>
-      <c r="S56" s="77"/>
+      <c r="Q56" s="62"/>
+      <c r="S56" s="76"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="76"/>
-      <c r="W56" s="77"/>
+      <c r="U56" s="75"/>
+      <c r="W56" s="76"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="76"/>
+      <c r="Y56" s="75"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="93"/>
-      <c r="D57" s="94"/>
+        <v>42</v>
+      </c>
+      <c r="B57" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="92"/>
+      <c r="D57" s="93"/>
       <c r="E57" s="34"/>
-      <c r="G57" s="62"/>
+      <c r="G57" s="61"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="63"/>
-      <c r="K57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="K57" s="61"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="63"/>
-      <c r="O57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="O57" s="61"/>
       <c r="P57" s="5"/>
-      <c r="Q57" s="63"/>
-      <c r="S57" s="77"/>
+      <c r="Q57" s="62"/>
+      <c r="S57" s="76"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="76"/>
-      <c r="W57" s="77"/>
+      <c r="U57" s="75"/>
+      <c r="W57" s="76"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="76"/>
+      <c r="Y57" s="75"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="93"/>
-      <c r="D58" s="94"/>
+        <v>44</v>
+      </c>
+      <c r="B58" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="92"/>
+      <c r="D58" s="93"/>
       <c r="E58" s="34"/>
-      <c r="G58" s="62"/>
+      <c r="G58" s="61"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="63"/>
-      <c r="K58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="K58" s="61"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="63"/>
-      <c r="O58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="O58" s="61"/>
       <c r="P58" s="5"/>
-      <c r="Q58" s="63"/>
-      <c r="S58" s="77"/>
+      <c r="Q58" s="62"/>
+      <c r="S58" s="76"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="76"/>
-      <c r="W58" s="77"/>
+      <c r="U58" s="75"/>
+      <c r="W58" s="76"/>
       <c r="X58" s="5"/>
-      <c r="Y58" s="76"/>
+      <c r="Y58" s="75"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="94"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="93"/>
       <c r="E59" s="34"/>
-      <c r="G59" s="62"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="63"/>
-      <c r="K59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="K59" s="61"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="63"/>
-      <c r="O59" s="62"/>
+      <c r="M59" s="62"/>
+      <c r="O59" s="61"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="63"/>
-      <c r="S59" s="77"/>
+      <c r="Q59" s="62"/>
+      <c r="S59" s="76"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="76"/>
-      <c r="W59" s="77"/>
+      <c r="U59" s="75"/>
+      <c r="W59" s="76"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="76"/>
+      <c r="Y59" s="75"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="43"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42"/>
       <c r="E60" s="34"/>
-      <c r="G60" s="62"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="63"/>
-      <c r="K60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="K60" s="61"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="63"/>
-      <c r="O60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="O60" s="61"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="63"/>
-      <c r="S60" s="77"/>
+      <c r="Q60" s="62"/>
+      <c r="S60" s="76"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="76"/>
-      <c r="W60" s="77"/>
+      <c r="U60" s="75"/>
+      <c r="W60" s="76"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="76"/>
+      <c r="Y60" s="75"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
-      <c r="B61" s="146"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="148"/>
+      <c r="B61" s="150"/>
+      <c r="C61" s="151"/>
+      <c r="D61" s="152"/>
       <c r="E61" s="34"/>
-      <c r="G61" s="62"/>
+      <c r="G61" s="61"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="63"/>
-      <c r="K61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="K61" s="61"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="63"/>
-      <c r="O61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="63"/>
-      <c r="S61" s="77"/>
+      <c r="Q61" s="62"/>
+      <c r="S61" s="76"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="76"/>
-      <c r="W61" s="77"/>
+      <c r="U61" s="75"/>
+      <c r="W61" s="76"/>
       <c r="X61" s="5"/>
-      <c r="Y61" s="76"/>
+      <c r="Y61" s="75"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="146"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="148"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="151"/>
+      <c r="D62" s="152"/>
       <c r="E62" s="34"/>
-      <c r="G62" s="62"/>
+      <c r="G62" s="61"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="63"/>
-      <c r="K62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="K62" s="61"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="63"/>
-      <c r="O62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="O62" s="61"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="63"/>
-      <c r="S62" s="77"/>
+      <c r="Q62" s="62"/>
+      <c r="S62" s="76"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="76"/>
-      <c r="W62" s="77"/>
+      <c r="U62" s="75"/>
+      <c r="W62" s="76"/>
       <c r="X62" s="5"/>
-      <c r="Y62" s="76"/>
+      <c r="Y62" s="75"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="146"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="148"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="151"/>
+      <c r="D63" s="152"/>
       <c r="E63" s="34"/>
-      <c r="G63" s="62"/>
+      <c r="G63" s="61"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="63"/>
-      <c r="K63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="K63" s="61"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="63"/>
-      <c r="O63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="O63" s="61"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="63"/>
-      <c r="S63" s="77"/>
+      <c r="Q63" s="62"/>
+      <c r="S63" s="76"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="76"/>
-      <c r="W63" s="77"/>
+      <c r="U63" s="75"/>
+      <c r="W63" s="76"/>
       <c r="X63" s="5"/>
-      <c r="Y63" s="76"/>
+      <c r="Y63" s="75"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="146"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="148"/>
+      <c r="B64" s="150"/>
+      <c r="C64" s="151"/>
+      <c r="D64" s="152"/>
       <c r="E64" s="34"/>
-      <c r="G64" s="62"/>
+      <c r="G64" s="61"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="63"/>
-      <c r="K64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="K64" s="61"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="63"/>
-      <c r="O64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="O64" s="61"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="63"/>
-      <c r="S64" s="77"/>
+      <c r="Q64" s="62"/>
+      <c r="S64" s="76"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="76"/>
-      <c r="W64" s="77"/>
+      <c r="U64" s="75"/>
+      <c r="W64" s="76"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="76"/>
+      <c r="Y64" s="75"/>
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
-      <c r="B65" s="149"/>
-      <c r="C65" s="150"/>
-      <c r="D65" s="151"/>
+      <c r="B65" s="153"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="155"/>
       <c r="E65" s="35"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="70"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="69"/>
-      <c r="M65" s="70"/>
-      <c r="O65" s="68"/>
-      <c r="P65" s="69"/>
-      <c r="Q65" s="70"/>
-      <c r="S65" s="80"/>
-      <c r="T65" s="81"/>
-      <c r="U65" s="82"/>
-      <c r="W65" s="80"/>
-      <c r="X65" s="81"/>
-      <c r="Y65" s="82"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="69"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="69"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="68"/>
+      <c r="Q65" s="69"/>
+      <c r="S65" s="79"/>
+      <c r="T65" s="80"/>
+      <c r="U65" s="81"/>
+      <c r="W65" s="79"/>
+      <c r="X65" s="80"/>
+      <c r="Y65" s="81"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5152,21 +5194,21 @@
     <protectedRange sqref="A42:E52 A29:E40" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="S27:U27"/>
     <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:J26 F8:J25 K8:AG26">
@@ -5401,36 +5443,40 @@
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55:I65 Q55:Q65 U55:U65 Y55:Y65 M55:M65 Y7:Y25 M7:M25 Q7:Q25 U7:U25 I7:I25 Q42:Q53 I42:I53 M42:M53" xr:uid="{53714382-D0A9-47D2-8C1D-AEC48E8210E1}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q53 I53 M53" xr:uid="{53714382-D0A9-47D2-8C1D-AEC48E8210E1}">
       <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D53 C29:D40" xr:uid="{482B0EC0-02CE-4334-BE6E-8AA5B58C3E7D}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29:Y40 Q29:Q40 M29:M40 I29:I40 U29:U40 U42:U53 Y42:Y53" xr:uid="{46DCA754-9328-4BB5-83EF-B19366F2C513}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U53 Y53" xr:uid="{46DCA754-9328-4BB5-83EF-B19366F2C513}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 I29:I40 M29:M40 Q29:Q40 U29:U40 Y29:Y40 I42:I52 M42:M52 Q42:Q52 U42:U52 Y42:Y52 I55:I65 M55:M65 Q55:Q65 U55:U65 Y55:Y65" xr:uid="{71CF411E-5105-407E-A23F-B2F5B0A24B96}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5643,14 +5689,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5663,6 +5701,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC566D-F3F8-443B-A991-561DA593D9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2745141D-AF05-4F1D-B59F-4828439D8356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -2003,6 +2003,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2030,41 +2060,55 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2777,11 +2821,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
-      <tableStyleElement type="headerRow" dxfId="61"/>
-      <tableStyleElement type="firstColumn" dxfId="60"/>
-      <tableStyleElement type="firstRowStripe" dxfId="59"/>
-      <tableStyleElement type="secondRowStripe" dxfId="58"/>
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
+      <tableStyleElement type="firstColumn" dxfId="64"/>
+      <tableStyleElement type="firstRowStripe" dxfId="63"/>
+      <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3404,8 +3448,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,32 +3510,32 @@
         <v>25</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="159" t="s">
+      <c r="K4" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="O4" s="159" t="s">
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="O4" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="S4" s="156" t="s">
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="S4" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="157"/>
-      <c r="U4" s="158"/>
-      <c r="W4" s="156" t="s">
+      <c r="T4" s="142"/>
+      <c r="U4" s="143"/>
+      <c r="W4" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="158"/>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="143"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4144,35 +4188,35 @@
       <c r="C27" s="135"/>
       <c r="D27" s="135"/>
       <c r="E27" s="136"/>
-      <c r="G27" s="141" t="s">
+      <c r="G27" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="142"/>
-      <c r="I27" s="143"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="100"/>
-      <c r="K27" s="141" t="s">
+      <c r="K27" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="142"/>
-      <c r="M27" s="143"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="153"/>
       <c r="N27" s="100"/>
-      <c r="O27" s="144" t="s">
+      <c r="O27" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="146"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="156"/>
       <c r="R27" s="101"/>
-      <c r="S27" s="147" t="s">
+      <c r="S27" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="T27" s="148"/>
-      <c r="U27" s="149"/>
+      <c r="T27" s="158"/>
+      <c r="U27" s="159"/>
       <c r="V27" s="101"/>
-      <c r="W27" s="147" t="s">
+      <c r="W27" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="X27" s="148"/>
-      <c r="Y27" s="149"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="159"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="137" t="s">
@@ -4288,7 +4332,7 @@
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="108"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="109"/>
       <c r="D31" s="108"/>
       <c r="E31" s="110"/>
@@ -4312,7 +4356,7 @@
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="108"/>
+      <c r="B32" s="106"/>
       <c r="C32" s="109"/>
       <c r="D32" s="108"/>
       <c r="E32" s="110"/>
@@ -4336,7 +4380,7 @@
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="108"/>
+      <c r="B33" s="106"/>
       <c r="C33" s="109"/>
       <c r="D33" s="108"/>
       <c r="E33" s="110"/>
@@ -4360,7 +4404,7 @@
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="108"/>
+      <c r="B34" s="106"/>
       <c r="C34" s="109"/>
       <c r="D34" s="108"/>
       <c r="E34" s="110"/>
@@ -4384,7 +4428,7 @@
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="108"/>
+      <c r="B35" s="106"/>
       <c r="C35" s="109"/>
       <c r="D35" s="108"/>
       <c r="E35" s="110"/>
@@ -4408,7 +4452,7 @@
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="108"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="109"/>
       <c r="D36" s="108"/>
       <c r="E36" s="110"/>
@@ -4432,7 +4476,7 @@
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="108"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="109"/>
       <c r="D37" s="108"/>
       <c r="E37" s="110"/>
@@ -4456,7 +4500,7 @@
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="108"/>
+      <c r="B38" s="106"/>
       <c r="C38" s="109"/>
       <c r="D38" s="108"/>
       <c r="E38" s="110"/>
@@ -4480,7 +4524,7 @@
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="111"/>
+      <c r="B39" s="106"/>
       <c r="C39" s="112"/>
       <c r="D39" s="111"/>
       <c r="E39" s="113"/>
@@ -5072,9 +5116,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
-      <c r="B61" s="150"/>
-      <c r="C61" s="151"/>
-      <c r="D61" s="152"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="147"/>
       <c r="E61" s="34"/>
       <c r="G61" s="61"/>
       <c r="H61" s="5"/>
@@ -5094,9 +5138,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="150"/>
-      <c r="C62" s="151"/>
-      <c r="D62" s="152"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="147"/>
       <c r="E62" s="34"/>
       <c r="G62" s="61"/>
       <c r="H62" s="5"/>
@@ -5116,9 +5160,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="150"/>
-      <c r="C63" s="151"/>
-      <c r="D63" s="152"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="147"/>
       <c r="E63" s="34"/>
       <c r="G63" s="61"/>
       <c r="H63" s="5"/>
@@ -5138,9 +5182,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="150"/>
-      <c r="C64" s="151"/>
-      <c r="D64" s="152"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="147"/>
       <c r="E64" s="34"/>
       <c r="G64" s="61"/>
       <c r="H64" s="5"/>
@@ -5160,9 +5204,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
-      <c r="B65" s="153"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="155"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="150"/>
       <c r="E65" s="35"/>
       <c r="G65" s="67"/>
       <c r="H65" s="68"/>
@@ -5194,253 +5238,261 @@
     <protectedRange sqref="A42:E52 A29:E40" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:J26 F8:J25 K8:AG26">
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="61" priority="67">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="60" priority="68">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55:Y65">
-    <cfRule type="expression" dxfId="55" priority="61">
+    <cfRule type="expression" dxfId="59" priority="65">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="62">
+    <cfRule type="expression" dxfId="58" priority="66">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55:U65">
-    <cfRule type="expression" dxfId="53" priority="59">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="60">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55:Q65">
-    <cfRule type="expression" dxfId="51" priority="55">
+    <cfRule type="expression" dxfId="55" priority="59">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="56">
+    <cfRule type="expression" dxfId="54" priority="60">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:I65">
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="53" priority="57">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="54">
+    <cfRule type="expression" dxfId="52" priority="58">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:E25">
-    <cfRule type="expression" dxfId="47" priority="51">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="52">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:M65">
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48">
+    <cfRule type="expression" dxfId="48" priority="52">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z29:AG34 F41:Y41 AA35:AG53 F28:AG28 F27 J27 N27 R27:AG27 F29:F40 N29:N40 J29:J40 R29:R40 A53:R53 F42:R52">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="46" priority="44">
       <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:O30">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:Q30">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="43" priority="37">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O40">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="40" priority="36">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q40">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="36" priority="32">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:M30">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K40">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:M40">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:I30">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G40">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I40">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:Y39">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42:Y51">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:Y53">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>$C52="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>$D52="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:Y40">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49">
-    <cfRule type="expression" dxfId="9" priority="41">
+    <cfRule type="expression" dxfId="13" priority="45">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="42">
+    <cfRule type="expression" dxfId="12" priority="46">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35 Z40:Z47">
-    <cfRule type="expression" dxfId="7" priority="43">
+    <cfRule type="expression" dxfId="11" priority="47">
       <formula>$C38="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="44">
+    <cfRule type="expression" dxfId="10" priority="48">
       <formula>$D38="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z48 Z36:Z39">
-    <cfRule type="expression" dxfId="5" priority="45">
+    <cfRule type="expression" dxfId="9" priority="49">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="46">
+    <cfRule type="expression" dxfId="8" priority="50">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34 A34:A36 C34:E36 A27:E33 A37:E52">
+  <conditionalFormatting sqref="A34:A36 C34:E36 A27:E33 B34 A37:E52">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C27="x"</formula>
+      <formula>$C35="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D27="x"</formula>
+      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
+  <conditionalFormatting sqref="B36">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C34="x"</formula>
+      <formula>$C36="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D34="x"</formula>
+      <formula>$D36="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -5465,21 +5517,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -5688,32 +5725,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5730,4 +5757,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Pipedrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99D3067-E0F2-4B8D-8BC9-F649749C589D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21F778-7198-4A8D-BB36-4EB21BE43612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1961,6 +1961,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1971,51 +2016,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3362,8 +3362,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,32 +3424,32 @@
         <v>28</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="145" t="s">
+      <c r="G4" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="145" t="s">
+      <c r="K4" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="O4" s="145" t="s">
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="O4" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="S4" s="142" t="s">
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="S4" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="143"/>
-      <c r="U4" s="144"/>
-      <c r="W4" s="142" t="s">
+      <c r="T4" s="158"/>
+      <c r="U4" s="159"/>
+      <c r="W4" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="144"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="159"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4102,35 +4102,35 @@
       <c r="C27" s="136"/>
       <c r="D27" s="136"/>
       <c r="E27" s="137"/>
-      <c r="G27" s="152" t="s">
+      <c r="G27" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="153"/>
-      <c r="I27" s="154"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="144"/>
       <c r="J27" s="101"/>
-      <c r="K27" s="152" t="s">
+      <c r="K27" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="153"/>
-      <c r="M27" s="154"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="144"/>
       <c r="N27" s="101"/>
-      <c r="O27" s="155" t="s">
+      <c r="O27" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="156"/>
-      <c r="Q27" s="157"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="147"/>
       <c r="R27" s="102"/>
-      <c r="S27" s="158" t="s">
+      <c r="S27" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="T27" s="159"/>
-      <c r="U27" s="160"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="150"/>
       <c r="V27" s="102"/>
-      <c r="W27" s="158" t="s">
+      <c r="W27" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="X27" s="159"/>
-      <c r="Y27" s="160"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="150"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="138" t="s">
@@ -5030,9 +5030,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
-      <c r="B61" s="146"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="148"/>
+      <c r="B61" s="151"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="153"/>
       <c r="E61" s="34"/>
       <c r="G61" s="62"/>
       <c r="H61" s="5"/>
@@ -5052,9 +5052,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="146"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="148"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="153"/>
       <c r="E62" s="34"/>
       <c r="G62" s="62"/>
       <c r="H62" s="5"/>
@@ -5074,9 +5074,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="146"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="148"/>
+      <c r="B63" s="151"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="153"/>
       <c r="E63" s="34"/>
       <c r="G63" s="62"/>
       <c r="H63" s="5"/>
@@ -5096,9 +5096,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="146"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="148"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="153"/>
       <c r="E64" s="34"/>
       <c r="G64" s="62"/>
       <c r="H64" s="5"/>
@@ -5118,9 +5118,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
-      <c r="B65" s="149"/>
-      <c r="C65" s="150"/>
-      <c r="D65" s="151"/>
+      <c r="B65" s="154"/>
+      <c r="C65" s="155"/>
+      <c r="D65" s="156"/>
       <c r="E65" s="35"/>
       <c r="G65" s="68"/>
       <c r="H65" s="69"/>
@@ -5152,21 +5152,21 @@
     <protectedRange sqref="A42:E52 A29:E40" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="S27:U27"/>
     <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:J26 F8:J25 K8:AG26">
@@ -5401,15 +5401,18 @@
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55:I65 Q55:Q65 U55:U65 Y55:Y65 M55:M65 Y7:Y25 M7:M25 Q7:Q25 U7:U25 I7:I25 Q42:Q53 I42:I53 M42:M53" xr:uid="{53714382-D0A9-47D2-8C1D-AEC48E8210E1}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q53 I53 M53" xr:uid="{53714382-D0A9-47D2-8C1D-AEC48E8210E1}">
       <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D53 C29:D40" xr:uid="{482B0EC0-02CE-4334-BE6E-8AA5B58C3E7D}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29:Y40 Q29:Q40 M29:M40 I29:I40 U29:U40 U42:U53 Y42:Y53" xr:uid="{46DCA754-9328-4BB5-83EF-B19366F2C513}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U53 Y53" xr:uid="{46DCA754-9328-4BB5-83EF-B19366F2C513}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 Y29:Y40 U29:U39 U40 Q29:Q40 M29:M40 I29:J40 I42:I52 M42:M52 Q42:Q52 U43:U52 U42 Y42:Y52 Y55:Y65 U55:U65 Q55:Q64 Q65 M55:M65 I56:I65 I55" xr:uid="{DEFC7D00-6DC2-4EA6-B1AE-AF4682545C9F}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5419,18 +5422,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5643,14 +5646,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5663,6 +5658,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21F778-7198-4A8D-BB36-4EB21BE43612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83A67A-56E0-439E-B9E0-567B22AEF1A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,9 +236,6 @@
     <t>Phase</t>
   </si>
   <si>
-    <t>das ist eine Notiz</t>
-  </si>
-  <si>
     <t>Pipedrive: Person</t>
   </si>
   <si>
@@ -291,6 +288,9 @@
   </si>
   <si>
     <t>Frage 10:</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -1961,6 +1961,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1986,36 +2016,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3363,7 +3363,7 @@
   <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+      <selection activeCell="B9" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,39 +3424,41 @@
         <v>28</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="160" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="G4" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="160" t="s">
+      <c r="K4" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="O4" s="160" t="s">
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="O4" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="S4" s="157" t="s">
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="S4" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="158"/>
-      <c r="U4" s="159"/>
-      <c r="W4" s="157" t="s">
+      <c r="T4" s="143"/>
+      <c r="U4" s="144"/>
+      <c r="W4" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="159"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="144"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
       <c r="E6" s="39" t="s">
@@ -3536,9 +3538,7 @@
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>52</v>
-      </c>
+      <c r="B8" s="47"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="37"/>
@@ -4096,48 +4096,48 @@
     </row>
     <row r="27" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="135" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="136"/>
       <c r="C27" s="136"/>
       <c r="D27" s="136"/>
       <c r="E27" s="137"/>
-      <c r="G27" s="142" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="143"/>
-      <c r="I27" s="144"/>
+      <c r="G27" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="153"/>
+      <c r="I27" s="154"/>
       <c r="J27" s="101"/>
-      <c r="K27" s="142" t="s">
+      <c r="K27" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="143"/>
-      <c r="M27" s="144"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="154"/>
       <c r="N27" s="101"/>
-      <c r="O27" s="145" t="s">
+      <c r="O27" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="147"/>
+      <c r="P27" s="156"/>
+      <c r="Q27" s="157"/>
       <c r="R27" s="102"/>
-      <c r="S27" s="148" t="s">
+      <c r="S27" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="T27" s="149"/>
-      <c r="U27" s="150"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="160"/>
       <c r="V27" s="102"/>
-      <c r="W27" s="148" t="s">
+      <c r="W27" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="X27" s="149"/>
-      <c r="Y27" s="150"/>
+      <c r="X27" s="159"/>
+      <c r="Y27" s="160"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="139" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
@@ -4192,15 +4192,15 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="108"/>
       <c r="D29" s="107"/>
       <c r="E29" s="106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" s="60"/>
       <c r="H29" s="6"/>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="107"/>
       <c r="C30" s="108"/>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="109"/>
       <c r="C31" s="110"/>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="109"/>
       <c r="C32" s="110"/>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="109"/>
       <c r="C33" s="110"/>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="109"/>
       <c r="C34" s="110"/>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="109"/>
       <c r="C35" s="110"/>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="109"/>
       <c r="C36" s="110"/>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="109"/>
       <c r="C37" s="110"/>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="109"/>
       <c r="C38" s="110"/>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="112"/>
       <c r="C39" s="113"/>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="41" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="133"/>
       <c r="D41" s="133"/>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="104"/>
       <c r="C42" s="105"/>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="109"/>
       <c r="C43" s="110"/>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="109"/>
       <c r="C44" s="110"/>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="109"/>
       <c r="C45" s="110"/>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="109"/>
       <c r="C46" s="110"/>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="109"/>
       <c r="C47" s="110"/>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="109"/>
       <c r="C48" s="110"/>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="109"/>
       <c r="C49" s="110"/>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="109"/>
       <c r="C50" s="110"/>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="112"/>
       <c r="C51" s="113"/>
@@ -5030,9 +5030,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
-      <c r="B61" s="151"/>
-      <c r="C61" s="152"/>
-      <c r="D61" s="153"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="148"/>
       <c r="E61" s="34"/>
       <c r="G61" s="62"/>
       <c r="H61" s="5"/>
@@ -5052,9 +5052,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="151"/>
-      <c r="C62" s="152"/>
-      <c r="D62" s="153"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="148"/>
       <c r="E62" s="34"/>
       <c r="G62" s="62"/>
       <c r="H62" s="5"/>
@@ -5074,9 +5074,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="153"/>
+      <c r="B63" s="146"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="148"/>
       <c r="E63" s="34"/>
       <c r="G63" s="62"/>
       <c r="H63" s="5"/>
@@ -5096,9 +5096,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="151"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="153"/>
+      <c r="B64" s="146"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="148"/>
       <c r="E64" s="34"/>
       <c r="G64" s="62"/>
       <c r="H64" s="5"/>
@@ -5118,9 +5118,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
-      <c r="B65" s="154"/>
-      <c r="C65" s="155"/>
-      <c r="D65" s="156"/>
+      <c r="B65" s="149"/>
+      <c r="C65" s="150"/>
+      <c r="D65" s="151"/>
       <c r="E65" s="35"/>
       <c r="G65" s="68"/>
       <c r="H65" s="69"/>
@@ -5152,21 +5152,21 @@
     <protectedRange sqref="A42:E52 A29:E40" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:J26 F8:J25 K8:AG26">
@@ -5422,18 +5422,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5646,6 +5646,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5658,14 +5666,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6447924-C099-4574-AF19-A8CA935722AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E5EFE-2D53-4191-B21D-903154844DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -162,9 +162,6 @@
       </rPr>
       <t>[Hier bitte den Name der master-Vorlage einfügen]</t>
     </r>
-  </si>
-  <si>
-    <t>Pflichtfel</t>
   </si>
   <si>
     <t>nicht benötigt</t>
@@ -1516,36 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1571,6 +1538,36 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -2786,7 +2783,7 @@
   <dimension ref="A1:AG65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2835,44 +2832,44 @@
       <c r="K3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:33" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" s="22"/>
-      <c r="G4" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
+      <c r="G4" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="O4" s="82" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="O4" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="S4" s="79" t="s">
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="S4" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="80"/>
-      <c r="U4" s="81"/>
-      <c r="W4" s="79" t="s">
+      <c r="T4" s="95"/>
+      <c r="U4" s="96"/>
+      <c r="W4" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="81"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="96"/>
     </row>
     <row r="5" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2880,7 +2877,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -2936,21 +2933,21 @@
     </row>
     <row r="7" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="26"/>
       <c r="G7" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>7</v>
@@ -2971,21 +2968,21 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="C8" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="26"/>
       <c r="G8" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>7</v>
@@ -3029,7 +3026,7 @@
     </row>
     <row r="10" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
@@ -3072,7 +3069,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="14"/>
@@ -3103,7 +3100,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
@@ -3134,7 +3131,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="14"/>
@@ -3145,7 +3142,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="1"/>
       <c r="K13" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="75" t="s">
         <v>20</v>
@@ -3165,7 +3162,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
@@ -3176,7 +3173,7 @@
       <c r="I14" s="40"/>
       <c r="J14" s="1"/>
       <c r="K14" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="75" t="s">
         <v>20</v>
@@ -3196,7 +3193,7 @@
     </row>
     <row r="15" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
@@ -3208,7 +3205,7 @@
       <c r="I15" s="40"/>
       <c r="J15" s="1"/>
       <c r="K15" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="75" t="s">
         <v>20</v>
@@ -3239,7 +3236,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
@@ -3250,7 +3247,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="1"/>
       <c r="K16" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L16" s="75" t="s">
         <v>20</v>
@@ -3270,22 +3267,18 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="26"/>
       <c r="G17" s="39"/>
       <c r="H17" s="75"/>
       <c r="I17" s="40"/>
       <c r="J17" s="1"/>
       <c r="K17" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L17" s="75" t="s">
         <v>20</v>
@@ -3305,14 +3298,14 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="26"/>
       <c r="G18" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="75" t="s">
         <v>14</v>
@@ -3336,14 +3329,14 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="26"/>
       <c r="G19" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="75" t="s">
         <v>14</v>
@@ -3374,7 +3367,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="26"/>
       <c r="G20" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="75" t="s">
         <v>14</v>
@@ -3455,7 +3448,7 @@
       <c r="L22" s="75"/>
       <c r="M22" s="40"/>
       <c r="O22" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P22" s="75" t="s">
         <v>16</v>
@@ -3472,7 +3465,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="14"/>
@@ -3486,7 +3479,7 @@
       <c r="L23" s="75"/>
       <c r="M23" s="40"/>
       <c r="O23" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="75" t="s">
         <v>17</v>
@@ -3503,7 +3496,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
@@ -3517,7 +3510,7 @@
       <c r="L24" s="75"/>
       <c r="M24" s="40"/>
       <c r="O24" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P24" s="75" t="s">
         <v>18</v>
@@ -3548,7 +3541,7 @@
       <c r="L25" s="75"/>
       <c r="M25" s="40"/>
       <c r="O25" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P25" s="75" t="s">
         <v>19</v>
@@ -3652,45 +3645,45 @@
     </row>
     <row r="30" spans="1:33" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="69"/>
       <c r="C30" s="69"/>
       <c r="D30" s="69"/>
       <c r="E30" s="70"/>
-      <c r="G30" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
+      <c r="G30" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="80"/>
+      <c r="I30" s="81"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="89" t="s">
+      <c r="K30" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
-      <c r="O30" s="92" t="s">
+      <c r="L30" s="80"/>
+      <c r="M30" s="81"/>
+      <c r="O30" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
-      <c r="S30" s="95" t="s">
+      <c r="P30" s="83"/>
+      <c r="Q30" s="84"/>
+      <c r="S30" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="T30" s="96"/>
-      <c r="U30" s="97"/>
-      <c r="W30" s="95" t="s">
+      <c r="T30" s="86"/>
+      <c r="U30" s="87"/>
+      <c r="W30" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="97"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="87"/>
     </row>
     <row r="31" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="73"/>
@@ -3746,15 +3739,15 @@
     </row>
     <row r="32" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
       <c r="E32" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="75"/>
@@ -3775,7 +3768,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
@@ -3800,7 +3793,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
@@ -3825,7 +3818,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
@@ -3850,7 +3843,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
@@ -3875,7 +3868,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="14"/>
@@ -3900,7 +3893,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="14"/>
@@ -3925,7 +3918,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="14"/>
@@ -3950,7 +3943,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="14"/>
@@ -3975,7 +3968,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
@@ -4000,7 +3993,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
@@ -4048,10 +4041,10 @@
     </row>
     <row r="44" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="66"/>
       <c r="D44" s="66"/>
@@ -4107,7 +4100,7 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
@@ -4132,7 +4125,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
@@ -4157,7 +4150,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
@@ -4182,7 +4175,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="14"/>
@@ -4207,7 +4200,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="14"/>
@@ -4232,7 +4225,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
@@ -4257,7 +4250,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -4282,7 +4275,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="14"/>
@@ -4307,7 +4300,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="14"/>
@@ -4332,7 +4325,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="14"/>
@@ -4462,10 +4455,10 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="53" t="s">
         <v>41</v>
-      </c>
-      <c r="B58" s="53" t="s">
-        <v>42</v>
       </c>
       <c r="C58" s="54"/>
       <c r="D58" s="55"/>
@@ -4489,10 +4482,10 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="50" t="s">
         <v>43</v>
-      </c>
-      <c r="B59" s="50" t="s">
-        <v>44</v>
       </c>
       <c r="C59" s="51"/>
       <c r="D59" s="52"/>
@@ -4516,10 +4509,10 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="50" t="s">
         <v>45</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>46</v>
       </c>
       <c r="C60" s="51"/>
       <c r="D60" s="52"/>
@@ -4543,10 +4536,10 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="50" t="s">
         <v>47</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>48</v>
       </c>
       <c r="C61" s="51"/>
       <c r="D61" s="52"/>
@@ -4593,9 +4586,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="85"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="90"/>
       <c r="E63" s="24"/>
       <c r="G63" s="39"/>
       <c r="H63" s="75"/>
@@ -4616,9 +4609,9 @@
     </row>
     <row r="64" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="88"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
       <c r="E64" s="25"/>
       <c r="G64" s="41"/>
       <c r="H64" s="76"/>
@@ -4651,11 +4644,6 @@
     <protectedRange sqref="A45:E54 A32:E42 E43 E55" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="W30:Y30"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="S4:U4"/>
@@ -4663,6 +4651,11 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="K4:M4"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="W30:Y30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A29:E29 G28:I29 K29:M29 O29:Q29 S7:U29 W29:Y29 G58:I63 K58:M63 O58:Q63 S58:U63 W58:Y63">
@@ -4870,18 +4863,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5094,14 +5087,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5114,6 +5099,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E5EFE-2D53-4191-B21D-903154844DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E391F-5324-45B8-BD83-723F7C40A2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1513,33 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1568,6 +1541,33 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -2782,8 +2782,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I58" activeCellId="19" sqref="I7:I28 M7:M28 Q7:Q28 U7:U28 Y7:Y28 Y32:Y43 U32:U43 Q32:Q43 M32:M43 I32:I43 I45:I55 M45:M55 Q45:Q55 U45:U55 Y45:Y55 Y58:Y64 U58:U64 Q58:Q64 M58:M64 I58:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,7 +2832,7 @@
       <c r="K3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:33" ht="81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -2844,32 +2844,32 @@
         <v>27</v>
       </c>
       <c r="E4" s="22"/>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="O4" s="97" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="O4" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="S4" s="94" t="s">
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="S4" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="95"/>
-      <c r="U4" s="96"/>
-      <c r="W4" s="94" t="s">
+      <c r="T4" s="86"/>
+      <c r="U4" s="87"/>
+      <c r="W4" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="96"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="87"/>
     </row>
     <row r="5" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3651,32 +3651,32 @@
       <c r="C30" s="69"/>
       <c r="D30" s="69"/>
       <c r="E30" s="70"/>
-      <c r="G30" s="79" t="s">
+      <c r="G30" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="80"/>
-      <c r="I30" s="81"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="79" t="s">
+      <c r="K30" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="80"/>
-      <c r="M30" s="81"/>
-      <c r="O30" s="82" t="s">
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
+      <c r="O30" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="84"/>
-      <c r="S30" s="85" t="s">
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="S30" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="T30" s="86"/>
-      <c r="U30" s="87"/>
-      <c r="W30" s="85" t="s">
+      <c r="T30" s="96"/>
+      <c r="U30" s="97"/>
+      <c r="W30" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="87"/>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="97"/>
     </row>
     <row r="31" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
@@ -4586,9 +4586,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="90"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="81"/>
       <c r="E63" s="24"/>
       <c r="G63" s="39"/>
       <c r="H63" s="75"/>
@@ -4609,9 +4609,9 @@
     </row>
     <row r="64" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="93"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="84"/>
       <c r="E64" s="25"/>
       <c r="G64" s="41"/>
       <c r="H64" s="76"/>
@@ -4852,8 +4852,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U56 Y56" xr:uid="{46DCA754-9328-4BB5-83EF-B19366F2C513}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I28 M7:M28 Q7:Q28 U7:U28 Y7:Y28 Y32:Y43 U32:U43 Q32:Q43 M32:M43 Q45:Q55 I45:I55 U45:U55 Y45:Y55 M45:M55 I32:I43 I58:I64 Q58:Q64 U58:U64 Y58:Y64 M58:M64" xr:uid="{DEFC7D00-6DC2-4EA6-B1AE-AF4682545C9F}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I28 M7:M28 Q7:Q28 U7:U28 Y7:Y28 Y32:Y43 U32:U43 Q32:Q43 M32:M43 I32:I43 I45:I55 M45:M55 Q45:Q55 U45:U55 Y45:Y55 Y58:Y64 U58:U64 Q58:Q64 M58:M64 I58:I64" xr:uid="{85781E27-38BD-4DBB-AF1B-B174ED6F2A28}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4863,18 +4863,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5087,6 +5087,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5099,14 +5107,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
